--- a/dat/calb_biolog_data.xlsx
+++ b/dat/calb_biolog_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadmirhakkak/Documents/reviewing_candida_paper/new_model_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F8E12A-B6FB-534C-B9A0-2FD05A26AEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E8DA5A6-C2E3-F645-838C-A0994D68F453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2860" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2664" workbookViewId="0">
+      <selection activeCell="H2689" sqref="H2689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
